--- a/ruleLib/ruleLib0720.xlsx
+++ b/ruleLib/ruleLib0720.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="268">
   <si>
     <t>分类</t>
   </si>
@@ -498,9 +498,6 @@
     <t>rule80</t>
   </si>
   <si>
-    <t>10日线走平</t>
-  </si>
-  <si>
     <t>沃华 七喜 海岛 浙江永强</t>
   </si>
   <si>
@@ -583,9 +580,6 @@
     <t>rule81</t>
   </si>
   <si>
-    <t>大鸭头</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -622,12 +616,6 @@
       </rPr>
       <t>2</t>
     </r>
-  </si>
-  <si>
-    <t>中鸭头</t>
-  </si>
-  <si>
-    <t>时间窗口通用型</t>
   </si>
   <si>
     <t>旗形整理突破</t>
@@ -1046,12 +1034,88 @@
     <t>X低开1.5%长阳7%（板寸）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>三个最高价，都在5日线上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>10日线走平（涨停平台整理）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>6天</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>31天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>旧法大鸭头</t>
+  </si>
+  <si>
+    <t>时间窗口通用型鸭头</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间窗口&gt;=6天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>rule</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>79</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>15天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>涨停突破多个上影</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>（前有涨停，上影在5日线上方）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳后连续3根以上短体K</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好缩量，短体K不破且向上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1158,6 +1222,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1191,7 +1271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1279,6 +1359,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2072,49 +2160,49 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2280,10 +2368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31:E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2354,10 +2442,10 @@
         <v>106</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D5" s="48" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>49</v>
@@ -2374,10 +2462,10 @@
         <v>107</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -2389,7 +2477,7 @@
         <v>108</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>38</v>
@@ -2477,10 +2565,10 @@
         <v>115</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2494,7 +2582,7 @@
         <v>105</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>66</v>
@@ -2526,16 +2614,16 @@
         <v>115</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2543,19 +2631,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C16" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E16" s="44" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2563,22 +2651,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D17" s="43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>231</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>238</v>
-      </c>
       <c r="G17" s="46" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2593,19 +2681,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F19" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2613,16 +2701,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2630,24 +2718,28 @@
         <v>14</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>115</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="21"/>
       <c r="B22" s="22"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="8"/>
+      <c r="D22" s="43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="21"/>
@@ -2657,7 +2749,10 @@
         <v>124</v>
       </c>
       <c r="E23" s="45" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="F23" s="49" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2786,200 +2881,223 @@
       <c r="A39" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="53" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D39" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="E39" s="46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="C40" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="E40" t="s">
         <v>142</v>
-      </c>
-      <c r="E39" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="16"/>
-      <c r="D40" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="16"/>
-      <c r="C41" s="28" t="s">
+      <c r="D41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="16"/>
+      <c r="C42" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="E42" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="E41" s="28" t="s">
+      <c r="F42" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="F41" s="28" t="s">
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" s="28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="C42" s="28" t="s">
+      <c r="D43" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E43" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F42" s="3" t="s">
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44" s="3" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="C43" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" s="9" customFormat="1">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="31" t="s">
-        <v>156</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>157</v>
-      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" s="9" customFormat="1">
       <c r="A45" s="29"/>
-      <c r="B45" s="32" t="s">
-        <v>158</v>
-      </c>
+      <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
+      </c>
+      <c r="E45" s="31" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:6" s="9" customFormat="1">
       <c r="A46" s="29"/>
       <c r="B46" s="32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>162</v>
+        <v>258</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="E46" s="31"/>
+      <c r="F46" s="9" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="47" spans="1:6" s="9" customFormat="1">
       <c r="A47" s="29"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="31"/>
+      <c r="B47" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>260</v>
+      </c>
       <c r="E47" s="31"/>
     </row>
-    <row r="48" spans="1:6">
-      <c r="E48" s="3"/>
+    <row r="48" spans="1:6" s="9" customFormat="1">
+      <c r="A48" s="29"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="C49" s="31" t="s">
-        <v>164</v>
-      </c>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>167</v>
+      <c r="C50" s="31" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="16"/>
+      <c r="A52" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="C52" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="16"/>
+      <c r="C53" s="7" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="16" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="16" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="10" customFormat="1">
+      <c r="A63" s="11"/>
+      <c r="B63" s="33"/>
+      <c r="C63" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="34"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="C66" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="10" customFormat="1">
-      <c r="A62" s="11"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="31" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="C67" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F62" s="10" t="s">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="16" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="34"/>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="C65" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="16" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2998,33 +3116,33 @@
   <sheetData>
     <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="8" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3048,15 +3166,15 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3085,123 +3203,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="46" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="46" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="46" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="46" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="46" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="46" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="46" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="46" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="46" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="46" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib0720.xlsx
+++ b/ruleLib/ruleLib0720.xlsx
@@ -13,13 +13,14 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="知识" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="277">
   <si>
     <t>分类</t>
   </si>
@@ -243,18 +244,6 @@
     <t>涨停且有2%下影或低开</t>
   </si>
   <si>
-    <t>rule类型</t>
-  </si>
-  <si>
-    <t>基本类型</t>
-  </si>
-  <si>
-    <t>附加类型</t>
-  </si>
-  <si>
-    <t>纯组合型</t>
-  </si>
-  <si>
     <t>策略列表</t>
   </si>
   <si>
@@ -384,39 +373,13 @@
     <t>观察长上影小阳线，第二天涨停，第三天开始的走势</t>
   </si>
   <si>
-    <t>有三必有五</t>
-  </si>
-  <si>
     <t>5日均量上穿后第一次调整</t>
   </si>
   <si>
     <t>先算量价均线（avg模块中）</t>
   </si>
   <si>
-    <t>涨停突破前期两个上影线（15天）</t>
-  </si>
-  <si>
     <t>平台策略</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ule30</t>
-    </r>
   </si>
   <si>
     <t>5天平台十字星（均线上方）</t>
@@ -489,9 +452,6 @@
     </r>
   </si>
   <si>
-    <t>沈阳机床、沃华医药、北斗星通</t>
-  </si>
-  <si>
     <t>20天内3个阴线，不超过2涨停，有跳空低开,正量多</t>
   </si>
   <si>
@@ -572,9 +532,6 @@
   </si>
   <si>
     <t>空中加油</t>
-  </si>
-  <si>
-    <t>DIFF和DEA上穿零轴之后，DIFF 接近DEA时甚至粘合或者击穿之后股价开始回升 DIFF开始掉头向上</t>
   </si>
   <si>
     <t>rule81</t>
@@ -912,9 +869,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>同有科技</t>
-  </si>
-  <si>
     <t>rule14</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1032,10 +986,6 @@
   </si>
   <si>
     <t>X低开1.5%长阳7%（板寸）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>三个最高价，都在5日线上</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1074,40 +1024,109 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>rule</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>79</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>15天</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>涨停突破多个上影</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>（前有涨停，上影在5日线上方）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>长阳后连续3根以上短体K</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好缩量，短体K不破且向上</t>
+    <t>15天，最后一天涨停，最高价；高于5日线
+往前找13天内两个最高点，为强跌；高于5日线
+第一最高点往前，有涨停</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule25</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度缩量</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>量\vma10\幅度（5天内2次）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>量\vma10\幅度《阈值</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈阳机床、沃华医药、北斗星通</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗星通</t>
+  </si>
+  <si>
+    <t>旁白</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>同有科技</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好长阳长下影</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>长阳后连续3根以上短体K，最好缩量，短体K不破且向上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大空中加油（双上影）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小空中加油（3天缩量）（4、5？）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>并入rule19</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule30</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小空中加油（有三必有五）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>湘潭电化、华贸物流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天内存在连续3涨停</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule50</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule51</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule52</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>专用1：空加</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIFF和DEA上穿零轴之后，
+DIFF 接近DEA时甚至粘合或者击穿
+之后股价开始回升 DIFF开始掉头向上</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1115,7 +1134,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,8 +1242,23 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1233,7 +1267,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1294,11 +1334,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1306,7 +1344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1314,22 +1351,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1359,14 +1387,46 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1671,7 +1731,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="17"/>
     <col min="2" max="3" width="9" style="3"/>
     <col min="4" max="4" width="23.875" style="3" customWidth="1"/>
     <col min="5" max="5" width="47.25" style="3" customWidth="1"/>
@@ -1681,13 +1741,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -1704,26 +1764,26 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="19"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
       <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1732,11 +1792,11 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1744,30 +1804,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="36" customFormat="1">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:7" s="26" customFormat="1">
+      <c r="A6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="36" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="19"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1776,11 +1836,11 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1788,25 +1848,25 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:7" s="26" customFormat="1">
+      <c r="A10" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="36" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="26" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
       <c r="D11" s="3" t="s">
         <v>24</v>
       </c>
@@ -1814,25 +1874,25 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="36" customFormat="1">
-      <c r="A12" s="19" t="s">
+    <row r="12" spans="1:7" s="26" customFormat="1">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="36" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1841,11 +1901,11 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
       <c r="D14" s="3" t="s">
         <v>30</v>
       </c>
@@ -1854,11 +1914,11 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
@@ -1867,11 +1927,11 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1880,11 +1940,11 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3" t="s">
         <v>36</v>
       </c>
@@ -1892,104 +1952,104 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="36" customFormat="1">
-      <c r="A18" s="19" t="s">
+    <row r="18" spans="1:7" s="26" customFormat="1">
+      <c r="A18" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="36" t="s">
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="36" t="s">
+      <c r="E18" s="26" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="36" customFormat="1">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:7" s="26" customFormat="1">
+      <c r="A19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="36" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="36" t="s">
+      <c r="E19" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="36" customFormat="1">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:7" s="26" customFormat="1">
+      <c r="A20" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="36" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="36" t="s">
+      <c r="E20" s="26" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="28" customFormat="1">
-      <c r="A21" s="38" t="s">
+    <row r="21" spans="1:7" s="21" customFormat="1">
+      <c r="A21" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="28" t="s">
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="28" customFormat="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-    </row>
-    <row r="23" spans="1:7" s="28" customFormat="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39"/>
-      <c r="C23" s="39"/>
-    </row>
-    <row r="24" spans="1:7" s="28" customFormat="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="28" t="s">
+    <row r="22" spans="1:7" s="21" customFormat="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:7" s="21" customFormat="1">
+      <c r="A23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:7" s="21" customFormat="1">
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="21" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="36" customFormat="1">
-      <c r="A25" s="19" t="s">
+    <row r="25" spans="1:7" s="26" customFormat="1">
+      <c r="A25" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="36" t="s">
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="36" t="s">
+      <c r="F25" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="26" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1998,211 +2058,211 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="41" t="s">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="E27" s="31" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="36" t="s">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="36" customFormat="1">
-      <c r="A31" s="19" t="s">
+    <row r="31" spans="1:7" s="26" customFormat="1">
+      <c r="A31" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="36" t="s">
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="36" t="s">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="42" t="s">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37" t="s">
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="36" customFormat="1">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:5" s="26" customFormat="1">
+      <c r="A35" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="36" t="s">
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="36" customFormat="1">
-      <c r="A36" s="19" t="s">
+    <row r="36" spans="1:5" s="26" customFormat="1">
+      <c r="A36" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="36" t="s">
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="36" t="s">
+      <c r="E36" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="41" t="s">
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="31" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="36" customFormat="1">
-      <c r="A39" s="19" t="s">
+    <row r="39" spans="1:5" s="26" customFormat="1">
+      <c r="A39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="36" t="s">
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="26" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="36" customFormat="1">
-      <c r="A40" s="37" t="s">
+    <row r="40" spans="1:5" s="26" customFormat="1">
+      <c r="A40" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="36" t="s">
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="36" t="s">
+      <c r="E40" s="26" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="36" t="s">
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="36" t="s">
+      <c r="E41" s="26" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50" spans="4:5">
-      <c r="D50" s="23" t="s">
-        <v>213</v>
+      <c r="D50" s="19" t="s">
+        <v>204</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" s="3" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -2214,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2234,129 +2294,102 @@
       <c r="B2" t="s">
         <v>75</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="E2" s="13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
+      <c r="E3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="B4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="E4" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="15" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="E7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="E8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:5">
+      <c r="B16" t="s">
         <v>85</v>
       </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
       <c r="B18" t="s">
         <v>87</v>
       </c>
-      <c r="C18" t="s">
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="B20" t="s">
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
         <v>89</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="B22" t="s">
+      <c r="C21" t="s">
         <v>91</v>
+      </c>
+      <c r="D21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="D25" t="s">
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D27" s="25" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="B27" t="s">
+      <c r="E27" s="25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="35" t="s">
+      <c r="F27" s="25" t="s">
         <v>99</v>
-      </c>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2368,17 +2401,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13" style="11" customWidth="1"/>
-    <col min="2" max="2" width="9" style="12"/>
-    <col min="3" max="3" width="12.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="11" customWidth="1"/>
+    <col min="2" max="2" width="7.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.875" style="14" customWidth="1"/>
     <col min="4" max="4" width="33" style="3" customWidth="1"/>
     <col min="5" max="5" width="43.375" customWidth="1"/>
     <col min="6" max="6" width="25.625" customWidth="1"/>
@@ -2386,48 +2419,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="C2" s="16"/>
-    </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="16"/>
+      <c r="A3" s="14" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -2435,17 +2464,17 @@
       </c>
     </row>
     <row r="5" spans="1:7" s="8" customFormat="1">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="48" t="s">
-        <v>254</v>
+      <c r="B5" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>244</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>49</v>
@@ -2455,31 +2484,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="8" customFormat="1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="20"/>
+      <c r="B6" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:7" s="8" customFormat="1">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="20" t="s">
+      <c r="B7" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>38</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -2487,16 +2516,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" s="8" customFormat="1">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="20" t="s">
+      <c r="B8" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -2504,48 +2533,48 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="8" customFormat="1">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D9" s="20" t="s">
+      <c r="B9" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>43</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>105</v>
+      <c r="B10" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="8" customFormat="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>105</v>
+      <c r="B11" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>101</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>63</v>
@@ -2555,543 +2584,600 @@
       </c>
     </row>
     <row r="12" spans="1:7" s="8" customFormat="1">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>205</v>
+      <c r="B12" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>196</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>204</v>
+      <c r="B13" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F15" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="36" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="18"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="E19" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="18"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="E23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="21" t="s">
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B24" s="48" t="s">
+        <v>253</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="18"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="18"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="18"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="40" t="s">
+        <v>275</v>
+      </c>
+      <c r="B28" s="48"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="48">
+      <c r="A31" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>274</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>251</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="8" t="s">
+    </row>
+    <row r="33" spans="1:6" s="8" customFormat="1">
+      <c r="A33" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="C33" s="42"/>
+      <c r="D33" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="F15" t="s">
-        <v>212</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>215</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="E16" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>234</v>
-      </c>
-      <c r="G17" s="46" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="44"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D19" s="43" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>218</v>
-      </c>
-      <c r="F19" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>228</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="D21" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="E22" s="54" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>217</v>
-      </c>
-      <c r="F23" s="49" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="24" t="s">
+      <c r="E33" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="24" t="s">
+      <c r="F33" s="43" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="21"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1">
-      <c r="A31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="E33" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="D34" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="D39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="D45" s="39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14"/>
+      <c r="D46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="16" t="s">
+      <c r="F46" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D37" s="3" t="s">
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="14"/>
+      <c r="C47" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D47" s="21" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D38" s="3" t="s">
+      <c r="E47" s="21" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="C39" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="D39" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="E39" s="46" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B40" s="14" t="s">
+      <c r="F47" s="21" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="51" t="s">
-        <v>257</v>
-      </c>
-      <c r="D40" s="50" t="s">
-        <v>256</v>
-      </c>
-      <c r="E40" t="s">
+    </row>
+    <row r="48" spans="1:6">
+      <c r="C48" s="29" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="16"/>
-      <c r="D41" s="3" t="s">
+      <c r="D48" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="16"/>
-      <c r="C42" s="28" t="s">
+    <row r="49" spans="1:6">
+      <c r="C49" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" s="9" customFormat="1">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="E42" s="28" t="s">
+    </row>
+    <row r="51" spans="1:6" s="9" customFormat="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="52" t="s">
         <v>148</v>
       </c>
-      <c r="F42" s="28" t="s">
+      <c r="C51" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="23"/>
+      <c r="F51" s="9" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="C43" s="28" t="s">
+    <row r="52" spans="1:6" s="9" customFormat="1">
+      <c r="A52" s="22"/>
+      <c r="B52" s="52" t="s">
         <v>150</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="C52" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="D52" s="41" t="s">
+        <v>249</v>
+      </c>
+      <c r="E52" s="23"/>
+    </row>
+    <row r="53" spans="1:6" s="9" customFormat="1">
+      <c r="A53" s="22"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="51"/>
+      <c r="E53" s="23"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="C55" s="51" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="3" t="s">
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="B56" s="11" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="C44" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" s="9" customFormat="1">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="31" t="s">
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="31" t="s">
+      <c r="C57" s="53" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="9" customFormat="1">
-      <c r="A46" s="29"/>
-      <c r="B46" s="32" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" s="14"/>
+      <c r="C58" s="53" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="31" t="s">
-        <v>258</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="9" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" s="9" customFormat="1">
-      <c r="A47" s="29"/>
-      <c r="B47" s="32" t="s">
+      <c r="C59" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="31" t="s">
-        <v>261</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="E47" s="31"/>
-    </row>
-    <row r="48" spans="1:6" s="9" customFormat="1">
-      <c r="A48" s="29"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="31"/>
-      <c r="E48" s="31"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="C50" s="31" t="s">
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="14" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="16" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="B51" s="12" t="s">
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="16"/>
-      <c r="C53" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="16" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="63" spans="1:6" s="10" customFormat="1">
       <c r="A63" s="11"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="31" t="s">
-        <v>172</v>
+      <c r="B63" s="24"/>
+      <c r="C63" s="51" t="s">
+        <v>163</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="34"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="C65" s="14" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="C66" s="3" t="s">
-        <v>175</v>
+      <c r="A66" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="16" t="s">
-        <v>178</v>
+      <c r="A67" s="14" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3192,7 @@
   <dimension ref="B3:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3116,33 +3202,33 @@
   <sheetData>
     <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="6" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="3" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3166,15 +3252,15 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3203,127 +3289,140 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>235</v>
-      </c>
-      <c r="B6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" s="47" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>239</v>
+        <v>241</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="C9" s="46" t="s">
-        <v>240</v>
+      <c r="C9" s="36" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="C10" s="46" t="s">
-        <v>241</v>
+      <c r="C10" s="36" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="46" t="s">
-        <v>242</v>
+      <c r="C11" s="36" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="46" t="s">
-        <v>243</v>
+      <c r="C12" s="36" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="C13" s="46" t="s">
-        <v>244</v>
+      <c r="C13" s="36" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="46" t="s">
-        <v>246</v>
+      <c r="C14" s="36" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C15" s="46" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" s="46" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" s="46" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="46" t="s">
-        <v>249</v>
+      <c r="C18" s="36" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ruleLib/ruleLib0720.xlsx
+++ b/ruleLib/ruleLib0720.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="285">
   <si>
     <t>分类</t>
   </si>
@@ -462,9 +462,6 @@
   </si>
   <si>
     <t>30日线5度斜率上升20天</t>
-  </si>
-  <si>
-    <t>德力股份</t>
   </si>
   <si>
     <r>
@@ -837,10 +834,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>rule13</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>涨停包长阴（上涨过程）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1127,6 +1120,46 @@
     <t>DIFF和DEA上穿零轴之后，
 DIFF 接近DEA时甚至粘合或者击穿
 之后股价开始回升 DIFF开始掉头向上</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>德力股份</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule13</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule15</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>长上影次日高开收阳</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>四通新材</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>（最好是大跌后走平）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个次高day中有两个是上影（且高\收&gt;ma5）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>大空中加油（涨停加上影加涨停）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>rule53</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2220,49 +2253,49 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>204</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="4:5">
       <c r="D56" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2401,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2471,10 +2504,10 @@
         <v>102</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>49</v>
@@ -2491,10 +2524,10 @@
         <v>103</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -2506,7 +2539,7 @@
         <v>104</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>38</v>
@@ -2546,7 +2579,7 @@
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
@@ -2594,10 +2627,10 @@
         <v>111</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2611,7 +2644,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>66</v>
@@ -2643,16 +2676,16 @@
         <v>111</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2660,19 +2693,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>206</v>
+        <v>276</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="E16" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>243</v>
+      <c r="D16" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F16" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2680,49 +2713,62 @@
         <v>14</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="18"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
+      <c r="A18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E19" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" t="s">
         <v>209</v>
-      </c>
-      <c r="F19" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2730,16 +2776,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2747,16 +2793,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2775,19 +2821,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D24" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="F24" t="s">
         <v>256</v>
-      </c>
-      <c r="F24" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2796,7 +2842,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2815,7 +2861,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="16"/>
@@ -2824,39 +2870,39 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="45" t="s">
+        <v>265</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>267</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>272</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>270</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B30" s="49" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C30" s="45" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48">
@@ -2864,115 +2910,123 @@
         <v>130</v>
       </c>
       <c r="B31" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D31" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="F31" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C31" s="40" t="s">
-        <v>251</v>
-      </c>
-      <c r="D31" s="39" t="s">
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="E32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F32" s="35"/>
+      <c r="G32" s="54"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="8" customFormat="1">
+      <c r="A34" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="C34" s="42"/>
+      <c r="D34" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="43" t="s">
         <v>263</v>
       </c>
-      <c r="E31" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="F31" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" s="8" customFormat="1">
-      <c r="A33" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>266</v>
-      </c>
-      <c r="C33" s="42"/>
-      <c r="D33" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="16" t="s">
+    <row r="37" spans="1:6">
+      <c r="A37" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B37" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D36" s="17" t="s">
+      <c r="D37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>60</v>
-      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="C38" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D38" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="D39" s="3" t="s">
+    <row r="40" spans="1:6">
+      <c r="D40" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="E40" s="3"/>
-    </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
-        <v>129</v>
-      </c>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2980,204 +3034,215 @@
         <v>130</v>
       </c>
       <c r="D43" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="14"/>
-    </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="14"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B46" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C45" s="40" t="s">
-        <v>246</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>245</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C46" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="E46" t="s">
         <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="14"/>
-      <c r="D46" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="14"/>
-      <c r="C47" s="29" t="s">
+      <c r="D47" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="14"/>
+      <c r="C48" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="E48" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E47" s="21" t="s">
+      <c r="F48" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="21" t="s">
+    </row>
+    <row r="49" spans="1:6">
+      <c r="C49" s="29" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="C48" s="29" t="s">
+      <c r="D49" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="E49" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="F48" s="3" t="s">
+    </row>
+    <row r="50" spans="1:6">
+      <c r="C50" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="C49" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" s="9" customFormat="1">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="51" t="s">
-        <v>147</v>
-      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
     </row>
     <row r="51" spans="1:6" s="9" customFormat="1">
       <c r="A51" s="22"/>
-      <c r="B51" s="52" t="s">
-        <v>148</v>
-      </c>
+      <c r="B51" s="22"/>
       <c r="C51" s="51" t="s">
-        <v>247</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E51" s="23"/>
-      <c r="F51" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="9" customFormat="1">
       <c r="A52" s="22"/>
       <c r="B52" s="52" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C52" s="51" t="s">
-        <v>250</v>
-      </c>
-      <c r="D52" s="41" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="E52" s="23"/>
+      <c r="F52" s="9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1">
       <c r="A53" s="22"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="51"/>
+      <c r="B53" s="52" t="s">
+        <v>149</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="D53" s="41" t="s">
+        <v>247</v>
+      </c>
       <c r="E53" s="23"/>
     </row>
-    <row r="54" spans="1:6">
-      <c r="E54" s="3"/>
+    <row r="54" spans="1:6" s="9" customFormat="1">
+      <c r="A54" s="22"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="51"/>
+      <c r="E54" s="23"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="C55" s="51" t="s">
-        <v>151</v>
-      </c>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>154</v>
+      <c r="C56" s="51" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C58" s="53" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="53" t="s">
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="14"/>
+      <c r="C59" s="53" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="14"/>
-      <c r="C58" s="53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="14" t="s">
-        <v>160</v>
+        <v>157</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" s="10" customFormat="1">
+      <c r="A64" s="11"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="51" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" s="10" customFormat="1">
-      <c r="A63" s="11"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="51" t="s">
+      <c r="D64" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="F64" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="F63" s="10" t="s">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="C66" s="14" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="C65" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="14" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="14" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3202,33 +3267,33 @@
   <sheetData>
     <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3252,15 +3317,15 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3289,123 +3354,123 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" t="s">
         <v>178</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="36" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="36" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="36" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="36" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="36" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="36" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/ruleLib/ruleLib0720.xlsx
+++ b/ruleLib/ruleLib0720.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="287">
   <si>
     <t>分类</t>
   </si>
@@ -1085,10 +1085,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>小空中加油（有三必有五）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>湘潭电化、华贸物流</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -1160,6 +1156,18 @@
   </si>
   <si>
     <t>rule53</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小空中加油（五天三）</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>6天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>小空中加油（六天三）</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -1167,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,13 +1312,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1344,7 +1345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1435,7 +1436,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2434,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D30" sqref="D29:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2483,7 +2483,7 @@
       <c r="A4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -2500,7 +2500,7 @@
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="46" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -2520,7 +2520,7 @@
       <c r="A6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="46" t="s">
         <v>103</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -2535,7 +2535,7 @@
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>104</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -2552,7 +2552,7 @@
       <c r="A8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="46" t="s">
         <v>105</v>
       </c>
       <c r="C8" s="18" t="s">
@@ -2569,7 +2569,7 @@
       <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>106</v>
       </c>
       <c r="C9" s="16" t="s">
@@ -2586,7 +2586,7 @@
       <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="46" t="s">
         <v>107</v>
       </c>
       <c r="C10" s="16" t="s">
@@ -2603,7 +2603,7 @@
       <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="46" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -2620,7 +2620,7 @@
       <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="47" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="18" t="s">
@@ -2637,7 +2637,7 @@
       <c r="A13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="47" t="s">
         <v>112</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -2654,7 +2654,7 @@
       <c r="A14" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="47" t="s">
         <v>113</v>
       </c>
       <c r="C14" s="16" t="s">
@@ -2669,7 +2669,7 @@
       <c r="A15" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="47" t="s">
         <v>115</v>
       </c>
       <c r="C15" s="18" t="s">
@@ -2692,27 +2692,27 @@
       <c r="A16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="48" t="s">
-        <v>276</v>
+      <c r="B16" s="47" t="s">
+        <v>275</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" t="s">
         <v>279</v>
-      </c>
-      <c r="F16" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="47" t="s">
         <v>212</v>
       </c>
       <c r="C17" s="18" t="s">
@@ -2732,8 +2732,8 @@
       <c r="A18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="48" t="s">
-        <v>277</v>
+      <c r="B18" s="47" t="s">
+        <v>276</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>111</v>
@@ -2755,7 +2755,7 @@
       <c r="A19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="47" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="18" t="s">
@@ -2775,7 +2775,7 @@
       <c r="A20" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="47" t="s">
         <v>216</v>
       </c>
       <c r="C20" s="18" t="s">
@@ -2792,7 +2792,7 @@
       <c r="A21" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="47" t="s">
         <v>217</v>
       </c>
       <c r="C21" s="18" t="s">
@@ -2807,7 +2807,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="18"/>
-      <c r="B23" s="48"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="16"/>
       <c r="D23" s="20" t="s">
         <v>117</v>
@@ -2820,7 +2820,7 @@
       <c r="A24" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="47" t="s">
         <v>251</v>
       </c>
       <c r="C24" s="16" t="s">
@@ -2838,7 +2838,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="18"/>
-      <c r="B25" s="48"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="16"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
@@ -2847,23 +2847,23 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="18"/>
-      <c r="B26" s="48"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="16"/>
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="18"/>
-      <c r="B27" s="48"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="16"/>
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="B28" s="48"/>
+        <v>272</v>
+      </c>
+      <c r="B28" s="47"/>
       <c r="C28" s="16"/>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2872,51 +2872,51 @@
       <c r="A29" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B29" s="49" t="s">
-        <v>270</v>
+      <c r="B29" s="48" t="s">
+        <v>269</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>281</v>
-      </c>
-      <c r="D29" s="46" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>268</v>
+      </c>
+      <c r="F29" s="36" t="s">
         <v>266</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>269</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="45" t="s">
         <v>265</v>
       </c>
-      <c r="B30" s="49" t="s">
-        <v>271</v>
-      </c>
-      <c r="C30" s="45" t="s">
+      <c r="B30" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48">
       <c r="A31" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>272</v>
+      <c r="B31" s="49" t="s">
+        <v>271</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>249</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E31" s="37" t="s">
         <v>250</v>
@@ -2924,16 +2924,16 @@
       <c r="F31" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="G31" s="54" t="s">
-        <v>274</v>
+      <c r="G31" s="53" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="50" t="s">
-        <v>284</v>
+      <c r="B32" s="49" t="s">
+        <v>283</v>
       </c>
       <c r="C32" s="40" t="s">
         <v>249</v>
@@ -2942,306 +2942,321 @@
         <v>261</v>
       </c>
       <c r="E32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F32" s="35"/>
-      <c r="G32" s="54"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="44" t="s">
+      <c r="G32" s="53"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="14"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="35"/>
+      <c r="G33" s="53"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="44" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="8" customFormat="1">
-      <c r="A34" s="42" t="s">
+    <row r="35" spans="1:7" s="8" customFormat="1">
+      <c r="A35" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B35" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="43" t="s">
+      <c r="C35" s="42"/>
+      <c r="D35" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E35" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F35" s="43" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
+    <row r="37" spans="1:7">
+      <c r="A37" s="14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B38" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C38" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D38" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>19</v>
       </c>
+      <c r="C39" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="D39" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="D40" s="3" t="s">
+    <row r="41" spans="1:7">
+      <c r="D41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:7">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="14" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
         <v>130</v>
       </c>
       <c r="D44" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="14"/>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:7">
+      <c r="A46" s="14"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B47" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C47" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D46" s="39" t="s">
+      <c r="D47" s="39" t="s">
         <v>243</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E47" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="14"/>
-      <c r="D47" s="3" t="s">
+    <row r="48" spans="1:7">
+      <c r="A48" s="14"/>
+      <c r="D48" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" s="3" t="s">
+      <c r="E48" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="14"/>
-      <c r="C48" s="29" t="s">
+    <row r="49" spans="1:6">
+      <c r="A49" s="14"/>
+      <c r="C49" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="D48" s="21" t="s">
+      <c r="D49" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="E49" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="21" t="s">
+      <c r="F49" s="21" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="C49" s="29" t="s">
+    <row r="50" spans="1:6">
+      <c r="C50" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="D49" s="21" t="s">
+      <c r="D50" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="C50" s="14" t="s">
+    <row r="51" spans="1:6">
+      <c r="C51" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" s="9" customFormat="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="51" t="s">
-        <v>146</v>
-      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
     </row>
     <row r="52" spans="1:6" s="9" customFormat="1">
       <c r="A52" s="22"/>
-      <c r="B52" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>245</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E52" s="23"/>
-      <c r="F52" s="9" t="s">
-        <v>148</v>
+      <c r="B52" s="22"/>
+      <c r="C52" s="50" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1">
       <c r="A53" s="22"/>
-      <c r="B53" s="52" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>247</v>
+      <c r="B53" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>246</v>
       </c>
       <c r="E53" s="23"/>
+      <c r="F53" s="9" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1">
       <c r="A54" s="22"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="51"/>
+      <c r="B54" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="41" t="s">
+        <v>247</v>
+      </c>
       <c r="E54" s="23"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="E55" s="3"/>
+    <row r="55" spans="1:6" s="9" customFormat="1">
+      <c r="A55" s="22"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="50"/>
+      <c r="E55" s="23"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="C56" s="51" t="s">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="C57" s="50" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C58" s="53" t="s">
+      <c r="C59" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="14"/>
-      <c r="C59" s="53" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" s="14"/>
+      <c r="C60" s="52" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="10" customFormat="1">
-      <c r="A64" s="11"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="51" t="s">
+    <row r="65" spans="1:6" s="10" customFormat="1">
+      <c r="A65" s="11"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D65" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="F64" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="C66" s="14" t="s">
+    <row r="67" spans="1:6">
+      <c r="C67" s="14" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="14" t="s">
+    <row r="68" spans="1:6">
+      <c r="A68" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="14" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="14" t="s">
         <v>168</v>
       </c>
     </row>

--- a/ruleLib/ruleLib0720.xlsx
+++ b/ruleLib/ruleLib0720.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="373" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="所有策略" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,13 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="知识" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="278">
   <si>
     <t>分类</t>
   </si>
@@ -277,31 +276,10 @@
     <t>筹码分布</t>
   </si>
   <si>
-    <t>不复权</t>
-  </si>
-  <si>
-    <t>价格与实际不符</t>
-  </si>
-  <si>
     <t>code范围</t>
   </si>
   <si>
     <t>大小盘股选择</t>
-  </si>
-  <si>
-    <t>系统</t>
-  </si>
-  <si>
-    <t>守护进程</t>
-  </si>
-  <si>
-    <t>进程间通信</t>
-  </si>
-  <si>
-    <t>界面</t>
-  </si>
-  <si>
-    <t>把代码分配给多个进程</t>
   </si>
   <si>
     <t>spder程序化</t>
@@ -887,14 +865,6 @@
   </si>
   <si>
     <t>跳空中阴不回，第二天长阳（最好高开）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>复权值和现价一样吗？</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>前复权值会变！！！！！</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -1756,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2253,49 +2223,41 @@
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="3" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="D45" s="3" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="D46" s="3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="C48" s="3" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="4:5">
       <c r="D50" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="56" spans="4:5">
-      <c r="D56" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2310,7 +2272,7 @@
   <dimension ref="A2:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2367,62 +2329,37 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="25" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E27" s="25" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2436,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D29:D30"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2476,7 +2413,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="14" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="8" customFormat="1">
@@ -2487,7 +2424,7 @@
         <v>75</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D4" s="17" t="s">
         <v>22</v>
@@ -2501,13 +2438,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>49</v>
@@ -2521,13 +2458,13 @@
         <v>14</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E6" s="17"/>
     </row>
@@ -2536,10 +2473,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="D7" s="17" t="s">
         <v>38</v>
@@ -2553,10 +2490,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D8" s="17" t="s">
         <v>15</v>
@@ -2570,16 +2507,16 @@
         <v>14</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="8" customFormat="1">
@@ -2587,13 +2524,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C10" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>108</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>59</v>
@@ -2604,10 +2541,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>63</v>
@@ -2621,16 +2558,16 @@
         <v>14</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2638,13 +2575,13 @@
         <v>14</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>66</v>
@@ -2655,13 +2592,13 @@
         <v>14</v>
       </c>
       <c r="B14" s="47" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -2670,22 +2607,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2693,19 +2630,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="47" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F16" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2713,19 +2650,19 @@
         <v>14</v>
       </c>
       <c r="B17" s="47" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E17" s="34" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2733,22 +2670,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E18" s="34" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F18" s="36" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2756,19 +2693,19 @@
         <v>14</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2776,16 +2713,16 @@
         <v>14</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2793,16 +2730,16 @@
         <v>14</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2810,10 +2747,10 @@
       <c r="B23" s="47"/>
       <c r="C23" s="16"/>
       <c r="D23" s="20" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2821,19 +2758,19 @@
         <v>14</v>
       </c>
       <c r="B24" s="47" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E24" s="20" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2842,7 +2779,7 @@
       <c r="C25" s="16"/>
       <c r="D25" s="20"/>
       <c r="E25" s="20" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2861,7 +2798,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="40" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B28" s="47"/>
       <c r="C28" s="16"/>
@@ -2870,79 +2807,79 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="45" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B29" s="48" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E29" s="35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="45" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B30" s="48" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E30" s="35" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="48">
       <c r="A31" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B31" s="49" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C31" s="40" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D31" s="39" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G31" s="53" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B32" s="49" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D32" s="39" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F32" s="35"/>
       <c r="G32" s="53"/>
@@ -2951,20 +2888,20 @@
       <c r="A33" s="14"/>
       <c r="B33" s="49"/>
       <c r="C33" s="45" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D33" s="33" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="F33" s="35"/>
       <c r="G33" s="53"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="44" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1">
@@ -2972,22 +2909,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C35" s="42"/>
       <c r="D35" s="43" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="F35" s="43" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="14" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2995,10 +2932,10 @@
         <v>19</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>57</v>
@@ -3011,7 +2948,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>60</v>
@@ -3022,18 +2959,18 @@
         <v>19</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="D41" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3041,26 +2978,26 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="14" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E44" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3068,65 +3005,65 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="14" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="14"/>
       <c r="D48" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="14"/>
       <c r="C49" s="29" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="F49" s="21" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="C50" s="29" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="C51" s="14" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -3135,35 +3072,35 @@
       <c r="A52" s="22"/>
       <c r="B52" s="22"/>
       <c r="C52" s="50" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="9" customFormat="1">
       <c r="A53" s="22"/>
       <c r="B53" s="51" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E53" s="23"/>
       <c r="F53" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:6" s="9" customFormat="1">
       <c r="A54" s="22"/>
       <c r="B54" s="51" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D54" s="41" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="E54" s="23"/>
     </row>
@@ -3178,86 +3115,86 @@
     </row>
     <row r="57" spans="1:6">
       <c r="C57" s="50" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="14" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="14" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="14"/>
       <c r="C60" s="52" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="14" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="14" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="10" customFormat="1">
       <c r="A65" s="11"/>
       <c r="B65" s="24"/>
       <c r="C65" s="50" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="C67" s="14" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="14" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="14" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3282,33 +3219,33 @@
   <sheetData>
     <row r="3" spans="2:4" ht="40.5">
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="C5" s="7" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="C8" s="8" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="C9" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3259,7 @@
   <dimension ref="A5:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3332,15 +3269,15 @@
   <sheetData>
     <row r="5" spans="1:2" ht="27">
       <c r="A5" s="3" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="68.25">
       <c r="B7" s="5" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -3357,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3369,140 +3306,127 @@
   <sheetData>
     <row r="1" spans="1:3" ht="94.5">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="B1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="54">
       <c r="A6" s="36" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="2" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="2" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="C9" s="36" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="C10" s="36" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" s="36" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="C12" s="36" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" s="36" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="C14" s="36" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="C16" s="36" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" s="36" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="36" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>